--- a/data/trans_orig/P14C16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E985E3-9D02-492D-9F9A-E515EFA5A909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BD0F9F-53A9-4F1E-97DE-A2E5693D4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3E8051-A76A-4170-8166-D6ED5C0C5AF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8CA5E7-0972-44AD-85E4-A802968AEE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
   </si>
@@ -74,28 +74,25 @@
     <t>81,21%</t>
   </si>
   <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>93,78%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +101,28 @@
     <t>18,79%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,13 +140,13 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>14,66%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,79 +158,82 @@
     <t>79,11%</t>
   </si>
   <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>11,4%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -242,133 +242,130 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,55%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>14,3%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>7,51%</t>
@@ -377,19 +374,19 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E37FA6-AECF-4A60-85BF-E98F5E53D4A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E219A3-C8BD-4DB2-9ED7-35CEA64127A4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,16 +958,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -979,13 +976,13 @@
         <v>3086</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -994,13 +991,13 @@
         <v>3240</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1009,19 +1006,19 @@
         <v>6326</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1030,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1045,13 +1042,13 @@
         <v>2072</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1060,13 +1057,13 @@
         <v>2072</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1081,13 +1078,13 @@
         <v>16421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -1096,13 +1093,13 @@
         <v>44173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -1111,18 +1108,18 @@
         <v>60594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1134,13 +1131,13 @@
         <v>79973</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -1149,13 +1146,13 @@
         <v>144026</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>215</v>
@@ -1164,19 +1161,19 @@
         <v>223999</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -1185,13 +1182,13 @@
         <v>18274</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -1200,13 +1197,13 @@
         <v>22121</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -1215,19 +1212,19 @@
         <v>40394</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -1287,13 +1284,13 @@
         <v>101089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -1302,13 +1299,13 @@
         <v>171058</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -1317,13 +1314,13 @@
         <v>272147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,7 +1358,7 @@
         <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -1370,19 +1367,19 @@
         <v>88265</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1391,13 +1388,13 @@
         <v>1047</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1406,13 +1403,13 @@
         <v>9565</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1421,19 +1418,19 @@
         <v>10612</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1442,13 +1439,13 @@
         <v>2843</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1457,13 +1454,13 @@
         <v>2020</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1472,13 +1469,13 @@
         <v>4863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,13 +1490,13 @@
         <v>46042</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -1508,13 +1505,13 @@
         <v>57698</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1523,13 +1520,13 @@
         <v>103740</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,13 +1543,13 @@
         <v>135460</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -1561,13 +1558,13 @@
         <v>228999</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>344</v>
@@ -1576,19 +1573,19 @@
         <v>364459</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -1597,13 +1594,13 @@
         <v>22407</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -1612,13 +1609,13 @@
         <v>34926</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -1627,19 +1624,19 @@
         <v>57333</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -1648,13 +1645,13 @@
         <v>5686</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1663,13 +1660,13 @@
         <v>9003</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -1678,13 +1675,13 @@
         <v>14689</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1696,13 @@
         <v>163552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="7">
         <v>258</v>
@@ -1714,13 +1711,13 @@
         <v>272929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>414</v>
@@ -1729,18 +1726,18 @@
         <v>436481</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4BD0F9F-53A9-4F1E-97DE-A2E5693D4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAC62EC-170F-47D8-B67A-65393059D164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D8CA5E7-0972-44AD-85E4-A802968AEE1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0889905-0AB9-4845-A264-F3F19754DE51}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
-  <si>
-    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+  <si>
+    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2016 (Tasa respuesta: 6,3%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,25 +74,28 @@
     <t>81,21%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>93,78%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,28 +104,28 @@
     <t>18,79%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -140,13 +143,13 @@
     <t>4,69%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>11,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,82 +161,82 @@
     <t>79,11%</t>
   </si>
   <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -242,94 +245,94 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>67,55%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>85,08%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>14,3%</t>
+    <t>11,03%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,54%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>87,12%</t>
@@ -338,55 +341,55 @@
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E219A3-C8BD-4DB2-9ED7-35CEA64127A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754038AB-F8F0-4247-B943-F0AD69EE4671}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -958,16 +961,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -976,13 +979,13 @@
         <v>3086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -991,13 +994,13 @@
         <v>3240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1006,19 +1009,19 @@
         <v>6326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1027,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -1042,13 +1045,13 @@
         <v>2072</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -1057,13 +1060,13 @@
         <v>2072</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1078,13 +1081,13 @@
         <v>16421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -1093,13 +1096,13 @@
         <v>44173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -1108,18 +1111,18 @@
         <v>60594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1131,13 +1134,13 @@
         <v>79973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -1146,13 +1149,13 @@
         <v>144026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>215</v>
@@ -1161,19 +1164,19 @@
         <v>223999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -1182,13 +1185,13 @@
         <v>18274</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -1197,13 +1200,13 @@
         <v>22121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -1212,19 +1215,19 @@
         <v>40394</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -1233,13 +1236,13 @@
         <v>2843</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -1248,13 +1251,13 @@
         <v>4911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -1263,13 +1266,13 @@
         <v>7754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1284,13 +1287,13 @@
         <v>101089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>165</v>
@@ -1299,13 +1302,13 @@
         <v>171058</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -1314,18 +1317,18 @@
         <v>272147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1337,13 +1340,13 @@
         <v>42152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -1352,13 +1355,13 @@
         <v>46112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -1367,19 +1370,19 @@
         <v>88265</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1388,13 +1391,13 @@
         <v>1047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1403,13 +1406,13 @@
         <v>9565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1418,19 +1421,19 @@
         <v>10612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1439,13 +1442,13 @@
         <v>2843</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1454,13 +1457,13 @@
         <v>2020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1469,13 +1472,13 @@
         <v>4863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,13 +1493,13 @@
         <v>46042</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -1505,13 +1508,13 @@
         <v>57698</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1520,13 +1523,13 @@
         <v>103740</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1546,13 @@
         <v>135460</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>215</v>
@@ -1558,13 +1561,13 @@
         <v>228999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>344</v>
@@ -1573,19 +1576,19 @@
         <v>364459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -1594,13 +1597,13 @@
         <v>22407</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -1609,13 +1612,13 @@
         <v>34926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>55</v>
@@ -1624,19 +1627,19 @@
         <v>57333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>6</v>
@@ -1645,13 +1648,13 @@
         <v>5686</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1660,13 +1663,13 @@
         <v>9003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -1675,13 +1678,13 @@
         <v>14689</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1699,13 @@
         <v>163552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>258</v>
@@ -1711,13 +1714,13 @@
         <v>272929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>414</v>
@@ -1726,18 +1729,18 @@
         <v>436481</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
